--- a/data/trans_orig/P36BPD08_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD08_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>458877</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>441347</v>
+        <v>440771</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>476233</v>
+        <v>475716</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7966447584774721</v>
+        <v>0.7966447584774722</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7662118489456919</v>
+        <v>0.7652116286771711</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8267753919276404</v>
+        <v>0.8258789306069697</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1393</v>
@@ -762,19 +762,19 @@
         <v>802872</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>795337</v>
+        <v>795967</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>808366</v>
+        <v>808554</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9779748991225816</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.968795687493849</v>
+        <v>0.9695634449152144</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9846666623290899</v>
+        <v>0.9848956420878243</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1924</v>
@@ -783,19 +783,19 @@
         <v>1261749</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1241887</v>
+        <v>1243026</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1279617</v>
+        <v>1279684</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.903206945276837</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8889890449177072</v>
+        <v>0.8898043419319103</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9159973615176238</v>
+        <v>0.9160449476497423</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>34580</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25071</v>
+        <v>25215</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45982</v>
+        <v>45500</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0600342722033126</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04352564149719915</v>
+        <v>0.04377501997530678</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07982889561708995</v>
+        <v>0.07899156548365453</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -833,19 +833,19 @@
         <v>10716</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6341</v>
+        <v>6581</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15948</v>
+        <v>16427</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01305253591219999</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007723375716289808</v>
+        <v>0.008016102004238215</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01942557620055627</v>
+        <v>0.02000946598727558</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>63</v>
@@ -854,19 +854,19 @@
         <v>45296</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>35047</v>
+        <v>34685</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57220</v>
+        <v>56923</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.03242454035729551</v>
+        <v>0.03242454035729549</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02508766927477187</v>
+        <v>0.02482845595847749</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04096034051523409</v>
+        <v>0.04074729958467738</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>82555</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>68131</v>
+        <v>69031</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>98050</v>
+        <v>99264</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1433209693192152</v>
+        <v>0.1433209693192153</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1182799408858696</v>
+        <v>0.1198424135465556</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1702218306939609</v>
+        <v>0.1723303562566649</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -904,19 +904,19 @@
         <v>7366</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4339</v>
+        <v>4549</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11695</v>
+        <v>12286</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.008972564965218486</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005285575131050966</v>
+        <v>0.005541383644596028</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01424547053444677</v>
+        <v>0.01496528560109527</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>126</v>
@@ -925,19 +925,19 @@
         <v>89921</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>74860</v>
+        <v>75176</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>107241</v>
+        <v>106124</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.06436851436586759</v>
+        <v>0.06436851436586757</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05358742403396032</v>
+        <v>0.05381385302632349</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07676685626350183</v>
+        <v>0.07596767503509451</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>1968246</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1934384</v>
+        <v>1934049</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2000154</v>
+        <v>2000515</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8845847381947697</v>
+        <v>0.8845847381947699</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8693662819815648</v>
+        <v>0.8692157221670064</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8989250130329327</v>
+        <v>0.8990873675339685</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2798</v>
@@ -1050,19 +1050,19 @@
         <v>2085098</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2068475</v>
+        <v>2068561</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2099080</v>
+        <v>2100477</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.960730299616232</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9530709629749923</v>
+        <v>0.9531105873499337</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9671727660278001</v>
+        <v>0.9678162290921595</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4537</v>
@@ -1071,19 +1071,19 @@
         <v>4053344</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4008593</v>
+        <v>4017185</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4087932</v>
+        <v>4086368</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9221834896013429</v>
+        <v>0.922183489601343</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9120019939935647</v>
+        <v>0.9139568579955388</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9300526974792128</v>
+        <v>0.9296968865178012</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>98706</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>76337</v>
+        <v>76403</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>125300</v>
+        <v>127655</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.04436131238819147</v>
+        <v>0.04436131238819149</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03430796411868293</v>
+        <v>0.03433763229570081</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05631316911825307</v>
+        <v>0.05737190026408297</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>61</v>
@@ -1121,19 +1121,19 @@
         <v>42094</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>32265</v>
+        <v>32026</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>53934</v>
+        <v>53313</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01939527646693211</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01486663076193493</v>
+        <v>0.01475609262984637</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02485082445843704</v>
+        <v>0.02456431659123691</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>147</v>
@@ -1142,19 +1142,19 @@
         <v>140800</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>117903</v>
+        <v>119346</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>170100</v>
+        <v>172537</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03203371560266925</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02682421607243013</v>
+        <v>0.02715257787797585</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03869981465859166</v>
+        <v>0.03925428638347634</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>158099</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132909</v>
+        <v>135024</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>185525</v>
+        <v>184424</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07105394941703863</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0597329033752335</v>
+        <v>0.06068354616964357</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08338032195856579</v>
+        <v>0.08288544933530669</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -1192,19 +1192,19 @@
         <v>43134</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33552</v>
+        <v>31692</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57501</v>
+        <v>55274</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0198744239168359</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01545921359428855</v>
+        <v>0.01460240378131988</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02649395094535098</v>
+        <v>0.0254679774541349</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>223</v>
@@ -1213,19 +1213,19 @@
         <v>201233</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>175472</v>
+        <v>174782</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>232051</v>
+        <v>229301</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04578279479598792</v>
+        <v>0.0457827947959879</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03992201641998879</v>
+        <v>0.03976498715443695</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0527943672725281</v>
+        <v>0.05216865291058807</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>634859</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>618702</v>
+        <v>618498</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>651839</v>
+        <v>650501</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8930871720908908</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8703583048926747</v>
+        <v>0.870071066547767</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9169738714505827</v>
+        <v>0.915092038152394</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>961</v>
@@ -1338,19 +1338,19 @@
         <v>704214</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>693367</v>
+        <v>694147</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>712634</v>
+        <v>712123</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9591589763108522</v>
+        <v>0.9591589763108523</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9443850450571929</v>
+        <v>0.9454476861378862</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9706279544344797</v>
+        <v>0.9699320448842059</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1557</v>
@@ -1359,19 +1359,19 @@
         <v>1339073</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1318941</v>
+        <v>1320175</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1356299</v>
+        <v>1357189</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9266566715216451</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9127249761706646</v>
+        <v>0.9135793454717214</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9385772190512216</v>
+        <v>0.9391933898571155</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>33474</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22070</v>
+        <v>23210</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45459</v>
+        <v>45842</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04709012230924917</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03104653314500708</v>
+        <v>0.03265099214201907</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0639493489704961</v>
+        <v>0.06448800822985586</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -1409,19 +1409,19 @@
         <v>16547</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9915</v>
+        <v>10965</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23611</v>
+        <v>24451</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02253777177143101</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01350502517935364</v>
+        <v>0.01493411325656236</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03215864139357071</v>
+        <v>0.03330278665732096</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -1430,19 +1430,19 @@
         <v>50022</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37721</v>
+        <v>38321</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>64239</v>
+        <v>65629</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03461566172604693</v>
+        <v>0.03461566172604694</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02610335344958747</v>
+        <v>0.02651835353490254</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04445410129238128</v>
+        <v>0.04541624526661737</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>42526</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30924</v>
+        <v>31798</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55555</v>
+        <v>55407</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05982270559986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04350256949306151</v>
+        <v>0.04473186090207117</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07815183288866032</v>
+        <v>0.07794343823423813</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1480,19 +1480,19 @@
         <v>13438</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7560</v>
+        <v>8432</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21805</v>
+        <v>23016</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01830325191771674</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01029750536008871</v>
+        <v>0.01148423716205686</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02969899559124714</v>
+        <v>0.03134899737198339</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>66</v>
@@ -1501,19 +1501,19 @@
         <v>55964</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42721</v>
+        <v>43388</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>70180</v>
+        <v>70365</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03872766675230805</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02956324893191612</v>
+        <v>0.03002486214740312</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04856584440310027</v>
+        <v>0.04869373323029344</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>3061982</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3019941</v>
+        <v>3020990</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3104052</v>
+        <v>3098724</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8718821642756387</v>
+        <v>0.8718821642756388</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8599110601522431</v>
+        <v>0.860209915668829</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8838614210771967</v>
+        <v>0.8823443362117954</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5152</v>
@@ -1626,19 +1626,19 @@
         <v>3592185</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3572425</v>
+        <v>3570812</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3610722</v>
+        <v>3609883</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9642206867191184</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9589166566343951</v>
+        <v>0.9584837264609729</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9691965101087073</v>
+        <v>0.9689711207148978</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8018</v>
@@ -1647,19 +1647,19 @@
         <v>6654166</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6606196</v>
+        <v>6605565</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6697091</v>
+        <v>6699354</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9194137679849413</v>
+        <v>0.9194137679849415</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9127857102417861</v>
+        <v>0.9126984682325824</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9253446881169975</v>
+        <v>0.925657472150874</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>166761</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>142005</v>
+        <v>141409</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197256</v>
+        <v>197138</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04748427751730725</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04043504006025372</v>
+        <v>0.04026554101187678</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05616751522951836</v>
+        <v>0.05613388437992972</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>105</v>
@@ -1697,19 +1697,19 @@
         <v>69357</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57031</v>
+        <v>56763</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>82992</v>
+        <v>83080</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.01861688448819878</v>
+        <v>0.01861688448819877</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01530823264240803</v>
+        <v>0.01523650451478555</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02227681057428731</v>
+        <v>0.02230051573929998</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>270</v>
@@ -1718,19 +1718,19 @@
         <v>236118</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>206309</v>
+        <v>206565</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>269033</v>
+        <v>273576</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03262467776120181</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02850590585246832</v>
+        <v>0.02854132953028166</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03717256170447788</v>
+        <v>0.03780025824242044</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>283179</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>250227</v>
+        <v>252335</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>312392</v>
+        <v>316082</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08063355820705399</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07125073629531567</v>
+        <v>0.0718510938620537</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08895192094370881</v>
+        <v>0.09000257503752253</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>91</v>
@@ -1768,19 +1768,19 @@
         <v>63938</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49865</v>
+        <v>51217</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>79014</v>
+        <v>79554</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.0171624287926828</v>
+        <v>0.01716242879268281</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01338481226719847</v>
+        <v>0.01374784449615951</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02120896788733222</v>
+        <v>0.0213539217687139</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>415</v>
@@ -1789,19 +1789,19 @@
         <v>347117</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>313711</v>
+        <v>315722</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>383927</v>
+        <v>382874</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04796155425385688</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0433458676812987</v>
+        <v>0.04362370059352461</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05304765188835261</v>
+        <v>0.05290218005673486</v>
       </c>
     </row>
     <row r="19">
